--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -121,15 +121,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -142,16 +142,16 @@
     <t>well</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -1334,25 +1334,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1360,25 +1360,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1386,25 +1386,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7317073170731707</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1516,25 +1516,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.6584615384615384</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1542,25 +1542,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1568,25 +1568,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.65</v>
+        <v>0.6328671328671329</v>
       </c>
       <c r="L33">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M33">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1594,25 +1594,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.6328671328671329</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L34">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M34">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="10:17">
